--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2231522.750203171</v>
+        <v>-2234383.563995463</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73.3091147073178</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>30.8292766054015</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>2.159995637461279</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>155.425687240545</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>126.4617428240386</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9028668221725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>79.51149230610427</v>
       </c>
       <c r="G5" t="n">
         <v>263.7138800015061</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>237.9688518868388</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>21.96407185991127</v>
       </c>
       <c r="W6" t="n">
-        <v>35.94253018505066</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.73547977908962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.7208498360414</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>341.596699772664</v>
+        <v>390.4177551445507</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>59.02353518847476</v>
       </c>
       <c r="T9" t="n">
-        <v>73.61175033013767</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>76.77334626834219</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.46066795053235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.76214411214</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>12.96996784159884</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>185.0663491738892</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.91529601901384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722611</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.83266606353076</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>116.287325111933</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2369,13 +2369,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>189.5765270689765</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,13 +2612,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>146.939375611337</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051593</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757.3371799990471</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="E2" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4367,13 +4367,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1023.714836566225</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1023.714836566225</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>1023.714836566225</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.5656780782545</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>826.7196740428385</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534679</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="W3" t="n">
-        <v>657.5656780782545</v>
+        <v>337.3302090828942</v>
       </c>
       <c r="X3" t="n">
-        <v>657.5656780782545</v>
+        <v>180.334565405576</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.5656780782545</v>
+        <v>180.334565405576</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.3946216843404</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C4" t="n">
-        <v>292.3946216843404</v>
+        <v>927.1163858403295</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3946216843404</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>491.2864063532015</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>292.3946216843404</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836798</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836798</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165019</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>367.789405660333</v>
       </c>
       <c r="F5" t="n">
         <v>287.4747669672984</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471533</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>367.789405660333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.9687112326096</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C6" t="n">
-        <v>270.5156819514826</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>481.2742972781153</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>481.2742972781153</v>
+        <v>1014.333705041187</v>
       </c>
       <c r="W6" t="n">
-        <v>444.9687112326096</v>
+        <v>760.0963483129856</v>
       </c>
       <c r="X6" t="n">
-        <v>444.9687112326096</v>
+        <v>552.2448481074528</v>
       </c>
       <c r="Y6" t="n">
-        <v>444.9687112326096</v>
+        <v>344.4845493424988</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.3076787063516</v>
+        <v>487.0398802382734</v>
       </c>
       <c r="C7" t="n">
-        <v>224.3714957784447</v>
+        <v>318.1036973103666</v>
       </c>
       <c r="D7" t="n">
-        <v>224.3714957784447</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E7" t="n">
-        <v>76.45840219605154</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>393.3076787063516</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>393.3076787063516</v>
+        <v>889.4809242120433</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.3076787063516</v>
+        <v>668.6883450685132</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1562.215029353955</v>
+        <v>1565.754521265642</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.252512413544</v>
+        <v>1196.79200432523</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.252512413544</v>
+        <v>838.5263057184795</v>
       </c>
       <c r="E8" t="n">
-        <v>807.4642598152993</v>
+        <v>452.7380531202353</v>
       </c>
       <c r="F8" t="n">
-        <v>462.41708832776</v>
+        <v>58.37668428735583</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229163</v>
+        <v>166.4989367229161</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677497</v>
+        <v>397.0601716677492</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937578</v>
+        <v>719.9935330937572</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721578</v>
+        <v>1110.988557721576</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999421</v>
+        <v>1512.924098999419</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830558</v>
+        <v>1879.125171830555</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271725</v>
+        <v>2157.168314271722</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257585</v>
+        <v>2317.794388257581</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="V8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.354361329767</v>
+        <v>1952.354361329763</v>
       </c>
       <c r="Y8" t="n">
-        <v>1562.215029353955</v>
+        <v>1952.354361329763</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>812.4820996906758</v>
+        <v>770.4575984713148</v>
       </c>
       <c r="C9" t="n">
-        <v>638.0290704095488</v>
+        <v>596.0045691901878</v>
       </c>
       <c r="D9" t="n">
-        <v>489.0946607482975</v>
+        <v>447.0701595289366</v>
       </c>
       <c r="E9" t="n">
-        <v>329.857205742842</v>
+        <v>287.8327045234811</v>
       </c>
       <c r="F9" t="n">
-        <v>183.322647769727</v>
+        <v>141.298146550366</v>
       </c>
       <c r="G9" t="n">
-        <v>46.51640239181694</v>
+        <v>141.298146550366</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977955</v>
+        <v>223.9894559067841</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412827</v>
+        <v>653.9400149707396</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336974</v>
+        <v>926.3340552631538</v>
       </c>
       <c r="M9" t="n">
-        <v>876.9112108303616</v>
+        <v>1263.561920459817</v>
       </c>
       <c r="N9" t="n">
-        <v>1237.473139081698</v>
+        <v>1624.123848711154</v>
       </c>
       <c r="O9" t="n">
-        <v>1680.779576843383</v>
+        <v>1931.747776372041</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106036</v>
+        <v>2159.310032681157</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590847</v>
+        <v>2307.861496570697</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160701</v>
+        <v>2266.200387077232</v>
       </c>
       <c r="T9" t="n">
-        <v>2113.795701796926</v>
+        <v>2071.771200577564</v>
       </c>
       <c r="U9" t="n">
-        <v>1885.698700641175</v>
+        <v>1843.674199421814</v>
       </c>
       <c r="V9" t="n">
-        <v>1650.546592409432</v>
+        <v>1608.522091190071</v>
       </c>
       <c r="W9" t="n">
-        <v>1396.309235681231</v>
+        <v>1354.284734461869</v>
       </c>
       <c r="X9" t="n">
-        <v>1188.457735475698</v>
+        <v>1146.433234256337</v>
       </c>
       <c r="Y9" t="n">
-        <v>980.6974367107439</v>
+        <v>938.6729354913828</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>809.8925858764317</v>
+        <v>533.6435794156349</v>
       </c>
       <c r="C10" t="n">
-        <v>640.9564029485248</v>
+        <v>364.707396487728</v>
       </c>
       <c r="D10" t="n">
-        <v>490.8397635361891</v>
+        <v>214.5907570753923</v>
       </c>
       <c r="E10" t="n">
-        <v>342.926669953796</v>
+        <v>214.5907570753923</v>
       </c>
       <c r="F10" t="n">
-        <v>196.0367224558856</v>
+        <v>214.5907570753923</v>
       </c>
       <c r="G10" t="n">
-        <v>196.0367224558856</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181687</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909564</v>
+        <v>65.89540801909544</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736021</v>
+        <v>227.5779039736017</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632621</v>
+        <v>490.0022680632615</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794057</v>
+        <v>777.0810884794048</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.76843262062</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257116</v>
+        <v>1310.630639257115</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325119</v>
+        <v>1499.198894325117</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718232</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600087</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901911</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="T10" t="n">
-        <v>1018.268998131452</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="U10" t="n">
-        <v>1018.268998131452</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="V10" t="n">
-        <v>1018.268998131452</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="W10" t="n">
-        <v>1018.268998131452</v>
+        <v>1164.074174287422</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.268998131452</v>
+        <v>936.0846233894048</v>
       </c>
       <c r="Y10" t="n">
-        <v>991.5410507066714</v>
+        <v>715.2920442458746</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2433.862105962484</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.525374274257</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606599</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7765431483241</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>585.863449565931</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>438.9735020680206</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.423283183833</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6464,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,52 +7090,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380719</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127284</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>137.0530405058548</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.81951354013114</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864763</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>149.6511845669352</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>318.4116921120115</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>297.4638497878669</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.40527886852286</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>101.118125215355</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>70.46607471595129</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829655</v>
+        <v>50775.64226829656</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982124</v>
@@ -26323,37 +26323,37 @@
         <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="K2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512996</v>
+        <v>331437.5228512983</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.78434241</v>
+        <v>563905.7843424107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201233</v>
+        <v>99845.14336201212</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569555</v>
+        <v>147342.6769569556</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167228.554393567</v>
+        <v>167228.5543935669</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077258</v>
+        <v>154923.9080077261</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,31 +26430,31 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768914</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="M4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17938.00358486241</v>
+      </c>
+      <c r="O4" t="n">
         <v>17938.00358486237</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.00358486238</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486235</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543592</v>
+        <v>88290.79546543585</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-859588.6959207295</v>
+        <v>-859948.7789364472</v>
       </c>
       <c r="C6" t="n">
-        <v>-250907.6367951493</v>
+        <v>-250907.6367951494</v>
       </c>
       <c r="D6" t="n">
-        <v>-513074.0935846402</v>
+        <v>-513074.0935846391</v>
       </c>
       <c r="E6" t="n">
-        <v>-614439.4635113355</v>
+        <v>-614474.2014367719</v>
       </c>
       <c r="F6" t="n">
-        <v>-50533.67916892556</v>
+        <v>-50568.41709436126</v>
       </c>
       <c r="G6" t="n">
-        <v>-50533.67916892558</v>
+        <v>-50568.41709436124</v>
       </c>
       <c r="H6" t="n">
-        <v>-50533.67916892556</v>
+        <v>-50568.4170943613</v>
       </c>
       <c r="I6" t="n">
-        <v>-50533.67916892559</v>
+        <v>-50568.41709436124</v>
       </c>
       <c r="J6" t="n">
-        <v>-119532.8335880397</v>
+        <v>-119567.5715134753</v>
       </c>
       <c r="K6" t="n">
-        <v>-50533.67916892556</v>
+        <v>-50568.41709436124</v>
       </c>
       <c r="L6" t="n">
-        <v>-159369.1300609688</v>
+        <v>-159369.1300609687</v>
       </c>
       <c r="M6" t="n">
-        <v>-206866.663655912</v>
+        <v>-206866.6636559122</v>
       </c>
       <c r="N6" t="n">
-        <v>-59523.98669895654</v>
+        <v>-59523.98669895655</v>
       </c>
       <c r="O6" t="n">
+        <v>-59523.98669895652</v>
+      </c>
+      <c r="P6" t="n">
         <v>-59523.98669895651</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-59523.98669895652</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896811</v>
+        <v>885.8132865896802</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977117</v>
+        <v>581.4550298977108</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202029</v>
+        <v>271.7582728202018</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519927</v>
+        <v>482.1622137519934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962056</v>
+        <v>317.7411498962047</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962056</v>
+        <v>317.7411498962047</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962056</v>
+        <v>317.7411498962047</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>291.9637770636897</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>72.2672508906021</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.5349875234583</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>50.34729796293246</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>40.78507827458927</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.68178652992233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>327.3645534356071</v>
       </c>
       <c r="G5" t="n">
         <v>149.1202946442039</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2690867692148</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>210.836515289514</v>
       </c>
       <c r="W6" t="n">
-        <v>215.7524529758689</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.6855682438416</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>61.98880555299573</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>65.27934596904748</v>
+        <v>16.45829059716078</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814988</v>
+        <v>73.18818411815002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177534</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696365</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906604</v>
+        <v>23.79630926906611</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>77.26888809736974</v>
       </c>
       <c r="T9" t="n">
-        <v>118.8731443045338</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>209.7496520682488</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.1239854015624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29332,13 +29332,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551479</v>
+        <v>3.561058438551475</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381534</v>
+        <v>36.46968973381531</v>
       </c>
       <c r="I8" t="n">
-        <v>137.287705452256</v>
+        <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490089</v>
+        <v>302.2403836490085</v>
       </c>
       <c r="K8" t="n">
-        <v>452.979987352893</v>
+        <v>452.9799873528926</v>
       </c>
       <c r="L8" t="n">
-        <v>561.961729541713</v>
+        <v>561.9617295417124</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483029</v>
+        <v>625.2907025483022</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368373</v>
+        <v>635.4085598368366</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884909</v>
+        <v>599.9982849884904</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867512</v>
+        <v>512.0846547867508</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561263</v>
+        <v>384.5542494561259</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406595</v>
+        <v>223.6923371406593</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849191</v>
+        <v>81.14761916849183</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475911</v>
+        <v>15.58853331475909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841182</v>
+        <v>0.284884675084118</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079691</v>
+        <v>1.905334239079689</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953281</v>
+        <v>18.40151751953279</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234903</v>
+        <v>65.60032358234896</v>
       </c>
       <c r="J9" t="n">
-        <v>180.012301947437</v>
+        <v>180.0123019474368</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657763</v>
+        <v>307.669695965776</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247374</v>
+        <v>413.699875024737</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913761</v>
+        <v>482.7682411913756</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139764</v>
+        <v>495.5456800139759</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059474</v>
+        <v>453.327484505947</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730334</v>
+        <v>363.835272373033</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726989</v>
+        <v>243.2142442726986</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053163</v>
+        <v>118.2978574053162</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799336</v>
+        <v>35.39074781799333</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150156</v>
+        <v>7.679834060150148</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815587</v>
+        <v>0.1253509367815586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719097</v>
+        <v>1.597368221719095</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401162</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587976</v>
+        <v>48.03721888587972</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755401</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051823</v>
+        <v>185.5851443051821</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817647</v>
+        <v>237.4850899817644</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191126</v>
+        <v>250.3947295191123</v>
       </c>
       <c r="N10" t="n">
-        <v>244.440902510887</v>
+        <v>244.4409025108868</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753502</v>
+        <v>225.78073737535</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522805</v>
+        <v>193.1944256522803</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750418</v>
+        <v>133.7578062750417</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020591</v>
+        <v>71.82348386020584</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577734</v>
+        <v>27.83777164577731</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527049</v>
+        <v>6.825118765527042</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013265</v>
+        <v>0.08712917573013257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089033</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223226</v>
+        <v>121.1944791223223</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079125</v>
+        <v>232.890136307912</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717258</v>
+        <v>326.1953145717252</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210302</v>
+        <v>394.9444693210295</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402464</v>
+        <v>405.9954962402457</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668042</v>
+        <v>369.9000735668036</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314817</v>
+        <v>280.8516590314812</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816768</v>
+        <v>162.2485595816764</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527408</v>
+        <v>8.106799326527181</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077032</v>
+        <v>179.265710621179</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914173</v>
+        <v>434.2934940039956</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448632</v>
+        <v>275.1454952448628</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693578</v>
+        <v>340.6342072693573</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306431</v>
+        <v>364.2039679306426</v>
       </c>
       <c r="O9" t="n">
-        <v>447.7842805673578</v>
+        <v>310.7312400615025</v>
       </c>
       <c r="P9" t="n">
-        <v>548.3236335986403</v>
+        <v>229.8608649587028</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866773</v>
+        <v>150.0519837268083</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267307</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886737</v>
+        <v>19.57475315886725</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792994</v>
+        <v>163.3156524792992</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420808</v>
+        <v>265.0751152420805</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809532</v>
+        <v>289.9786064809529</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901157</v>
+        <v>288.5730748901154</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893899</v>
+        <v>250.3658652893897</v>
       </c>
       <c r="P10" t="n">
-        <v>190.472984917174</v>
+        <v>190.4729849171738</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334746</v>
+        <v>47.59576302334732</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
